--- a/Results/pruebasRendimiento.xlsx
+++ b/Results/pruebasRendimiento.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Nivel paralelismo</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>Desv. Típica</t>
-  </si>
-  <si>
-    <t>Datos ejecución</t>
   </si>
   <si>
     <t>Input</t>
@@ -57,13 +54,16 @@
     <t>Memoria por TM</t>
   </si>
   <si>
-    <t>35 GB</t>
-  </si>
-  <si>
     <t>Algoritmo</t>
   </si>
   <si>
     <t>MEM</t>
+  </si>
+  <si>
+    <t>Parámetros ejecución</t>
+  </si>
+  <si>
+    <t>30 GB</t>
   </si>
 </sst>
 </file>
@@ -71,9 +71,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
-    <numFmt numFmtId="166" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="170" formatCode="0.00000"/>
-    <numFmt numFmtId="171" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -232,99 +232,83 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -342,6 +326,1039 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tiempo (minutos)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$27:$G$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$28:$G$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="1">
+                  <c:v>17.2133</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.2467000000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.4333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7F78-4583-A0D8-0A1A0CD2B6B2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2047673583"/>
+        <c:axId val="2043838287"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2047673583"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Nivel de paralelismo</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2043838287"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2043838287"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Tiempo</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-ES" baseline="0"/>
+                  <a:t> (minutos)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2047673583"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B2D53E2-909D-4A12-A2CC-E7478C162FA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -641,386 +1658,447 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="10"/>
-      <c r="J1" s="8" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="4"/>
+      <c r="J1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="J2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="K2" s="5"/>
+      <c r="L2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="T2" s="5"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="14">
+        <v>4</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="6">
+        <v>16.54</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="21">
+        <f>AVERAGE(C3:C5)</f>
+        <v>17.213333333333331</v>
+      </c>
+      <c r="F3" s="22"/>
+      <c r="G3" s="15">
+        <f>_xlfn.STDEV.P(C3:C5)</f>
+        <v>0.5552977179455677</v>
+      </c>
+      <c r="H3" s="16"/>
+      <c r="J3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6">
+        <v>1</v>
+      </c>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="T3" s="6"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="6">
+        <v>17.2</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="18"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="6">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="20"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
+        <v>8</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="6">
+        <v>10.31</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="21">
+        <f>AVERAGE(C6:C8)</f>
+        <v>10.270000000000001</v>
+      </c>
+      <c r="F6" s="22"/>
+      <c r="G6" s="15">
+        <f>_xlfn.STDEV.P(C6:C8)</f>
+        <v>8.6409875978771269E-2</v>
+      </c>
+      <c r="H6" s="16"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="6">
+        <v>10.35</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="18"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="6">
+        <v>10.15</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="20"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
+        <v>12</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="27">
+        <v>8.16</v>
+      </c>
+      <c r="D9" s="27"/>
+      <c r="E9" s="21">
+        <f>AVERAGE(C9:C11)</f>
+        <v>8.2466666666666661</v>
+      </c>
+      <c r="F9" s="22"/>
+      <c r="G9" s="15">
+        <f>_xlfn.STDEV.P(C9:C11)</f>
+        <v>7.8457348639598565E-2</v>
+      </c>
+      <c r="H9" s="16"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="6">
+        <v>8.35</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="18"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="6">
+        <v>8.23</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="20"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="14">
+        <v>16</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="6">
+        <v>7.23</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="21">
+        <f>AVERAGE(C12:C14)</f>
+        <v>7.25</v>
+      </c>
+      <c r="F12" s="22"/>
+      <c r="G12" s="15">
+        <f>_xlfn.STDEV.P(C12:C14)</f>
+        <v>3.5590260840104276E-2</v>
+      </c>
+      <c r="H12" s="16"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="6">
+        <v>7.22</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="18"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="6">
+        <v>7.3</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="20"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="14">
+        <v>32</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="6">
+        <v>5.47</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="21">
+        <f>AVERAGE(C15:C17)</f>
+        <v>5.4333333333333336</v>
+      </c>
+      <c r="F15" s="22"/>
+      <c r="G15" s="15">
+        <f>_xlfn.STDEV.P(C15:C17)</f>
+        <v>4.4969125210773342E-2</v>
+      </c>
+      <c r="H15" s="16"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="6">
+        <v>5.37</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="18"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="6">
+        <v>5.46</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="20"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="14">
+        <v>64</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="11"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="13"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="14">
+        <v>96</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="13"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12" t="s">
+      <c r="B27" s="5"/>
+      <c r="C27" s="1">
+        <v>4</v>
+      </c>
+      <c r="D27" s="1">
+        <v>8</v>
+      </c>
+      <c r="E27" s="1">
+        <v>12</v>
+      </c>
+      <c r="F27" s="1">
+        <v>16</v>
+      </c>
+      <c r="G27" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="12"/>
-      <c r="J2" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="T2" s="12"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
-        <v>4</v>
-      </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="7">
-        <v>17.2</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="2"/>
-      <c r="J3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7">
-        <v>1</v>
-      </c>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="T3" s="7"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="4"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
-        <v>8</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="7">
-        <v>11.16</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
-        <v>12</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="13">
-        <v>7.47</v>
-      </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="4"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
-        <v>16</v>
-      </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
-        <v>32</v>
-      </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="7">
-        <v>6</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="14">
-        <f>AVERAGE(C15:C17)</f>
-        <v>6.0566666666666658</v>
-      </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="20">
-        <f>_xlfn.STDEV.P(C15:C17)</f>
-        <v>4.4969125210773592E-2</v>
-      </c>
-      <c r="H15" s="21"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="7">
-        <v>6.06</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="23"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="7">
-        <v>6.11</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="25"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="11">
-        <v>64</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="7">
-        <v>5.6</v>
-      </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="26">
-        <f>AVERAGE(C18:C20)</f>
-        <v>5.2966666666666669</v>
-      </c>
-      <c r="F18" s="27"/>
-      <c r="G18" s="26">
-        <f>_xlfn.STDEV.P(C18:C20)</f>
-        <v>0.21483844059096008</v>
-      </c>
-      <c r="H18" s="27"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="7">
-        <v>5.16</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="29"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="7">
-        <v>5.13</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="31"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="11">
-        <v>96</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="7">
-        <v>4.46</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="26">
-        <f>AVERAGE(C21:C23)</f>
-        <v>4.4833333333333334</v>
-      </c>
-      <c r="F21" s="27"/>
-      <c r="G21" s="26">
-        <f>_xlfn.STDEV.P(C21:C23)</f>
-        <v>6.3420991968134985E-2</v>
-      </c>
-      <c r="H21" s="27"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="7">
-        <v>4.42</v>
-      </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="29"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="7">
-        <v>4.57</v>
-      </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="31"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="2">
+        <v>17.2133</v>
+      </c>
+      <c r="D28" s="2">
+        <v>10.27</v>
+      </c>
+      <c r="E28" s="2">
+        <v>8.2467000000000006</v>
+      </c>
+      <c r="F28" s="2">
+        <v>7.25</v>
+      </c>
+      <c r="G28" s="2">
+        <v>5.4333</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="58">
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="J1:T1"/>
-    <mergeCell ref="E21:F23"/>
-    <mergeCell ref="G21:H23"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A21:B23"/>
+  <mergeCells count="60">
+    <mergeCell ref="E18:F20"/>
+    <mergeCell ref="G18:H20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="G3:H5"/>
+    <mergeCell ref="E6:F8"/>
+    <mergeCell ref="G6:H8"/>
+    <mergeCell ref="E9:F11"/>
+    <mergeCell ref="E15:F17"/>
+    <mergeCell ref="G15:H17"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A9:B11"/>
+    <mergeCell ref="A12:B14"/>
+    <mergeCell ref="A15:B17"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E3:F5"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="A3:B5"/>
     <mergeCell ref="C4:D4"/>
@@ -1029,11 +2107,9 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="J1:T1"/>
+    <mergeCell ref="E21:F23"/>
+    <mergeCell ref="G21:H23"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A18:B20"/>
     <mergeCell ref="C18:D18"/>
@@ -1045,23 +2121,27 @@
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A9:B11"/>
-    <mergeCell ref="A12:B14"/>
-    <mergeCell ref="A15:B17"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E3:F5"/>
-    <mergeCell ref="G3:H5"/>
-    <mergeCell ref="E6:F8"/>
-    <mergeCell ref="G6:H8"/>
-    <mergeCell ref="E9:F11"/>
-    <mergeCell ref="E15:F17"/>
-    <mergeCell ref="G15:H17"/>
-    <mergeCell ref="E18:F20"/>
-    <mergeCell ref="G18:H20"/>
-    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A21:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Results/pruebasRendimiento.xlsx
+++ b/Results/pruebasRendimiento.xlsx
@@ -70,10 +70,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -232,44 +231,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -308,7 +274,22 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -353,7 +334,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$28</c:f>
+              <c:f>Sheet1!$A$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -388,7 +369,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$27:$G$27</c:f>
+              <c:f>Sheet1!$B$31:$G$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -399,20 +380,20 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$28:$G$28</c:f>
+              <c:f>Sheet1!$B$32:$G$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -423,13 +404,13 @@
                   <c:v>10.27</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.2467000000000006</c:v>
+                  <c:v>7.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.25</c:v>
+                  <c:v>5.4333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.4333</c:v>
+                  <c:v>4.72</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -437,7 +418,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7F78-4583-A0D8-0A1A0CD2B6B2}"/>
+              <c16:uniqueId val="{00000000-8584-488C-9535-CA00E1450CCF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -449,13 +430,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2047673583"/>
-        <c:axId val="2043838287"/>
+        <c:axId val="249314288"/>
+        <c:axId val="178386528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2047673583"/>
+        <c:axId val="249314288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="64"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -473,20 +455,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -543,7 +511,7 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -579,12 +547,14 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2043838287"/>
+        <c:crossAx val="178386528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="4"/>
+        <c:minorUnit val="4"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2043838287"/>
+        <c:axId val="178386528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -639,13 +609,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-ES"/>
-                  <a:t>Tiempo</a:t>
+                  <a:t>Tiempo (minutos)</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="es-ES" baseline="0"/>
-                  <a:t> (minutos)</a:t>
-                </a:r>
-                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -679,7 +644,7 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -715,7 +680,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2047673583"/>
+        <c:crossAx val="249314288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1324,23 +1289,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
+        <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B2D53E2-909D-4A12-A2CC-E7478C162FA9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CB9B709-ABE6-4684-8DB8-B5905C3EF0F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1658,473 +1623,409 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T28"/>
+  <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:G28"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="4"/>
-      <c r="J1" s="3" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="21"/>
+      <c r="J1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="16"/>
+      <c r="E2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5" t="s">
+      <c r="F2" s="16"/>
+      <c r="G2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="J2" s="5" t="s">
+      <c r="H2" s="16"/>
+      <c r="J2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5" t="s">
+      <c r="K2" s="16"/>
+      <c r="L2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5" t="s">
+      <c r="M2" s="16"/>
+      <c r="N2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5" t="s">
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5" t="s">
+      <c r="R2" s="16"/>
+      <c r="S2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="5"/>
+      <c r="T2" s="16"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
+      <c r="A3" s="17">
         <v>4</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="6">
+      <c r="B3" s="17"/>
+      <c r="C3" s="3">
         <v>16.54</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="21">
+      <c r="D3" s="3"/>
+      <c r="E3" s="10">
         <f>AVERAGE(C3:C5)</f>
         <v>17.213333333333331</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="15">
+      <c r="F3" s="11"/>
+      <c r="G3" s="4">
         <f>_xlfn.STDEV.P(C3:C5)</f>
         <v>0.5552977179455677</v>
       </c>
-      <c r="H3" s="16"/>
-      <c r="J3" s="6" t="s">
+      <c r="H3" s="5"/>
+      <c r="J3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6" t="s">
+      <c r="K3" s="3"/>
+      <c r="L3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6" t="s">
+      <c r="M3" s="3"/>
+      <c r="N3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6">
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3">
         <v>1</v>
       </c>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6" t="s">
+      <c r="R3" s="3"/>
+      <c r="S3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="T3" s="6"/>
+      <c r="T3" s="3"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="6">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="3">
         <v>17.2</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="18"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="6">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="3">
         <v>17.899999999999999</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="20"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="14">
+      <c r="A6" s="17">
         <v>8</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="6">
+      <c r="B6" s="17"/>
+      <c r="C6" s="3">
         <v>10.31</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="21">
+      <c r="D6" s="3"/>
+      <c r="E6" s="10">
         <f>AVERAGE(C6:C8)</f>
         <v>10.270000000000001</v>
       </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="15">
+      <c r="F6" s="11"/>
+      <c r="G6" s="4">
         <f>_xlfn.STDEV.P(C6:C8)</f>
         <v>8.6409875978771269E-2</v>
       </c>
-      <c r="H6" s="16"/>
+      <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="6">
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="3">
         <v>10.35</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="18"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="6">
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="3">
         <v>10.15</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="20"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
+      <c r="A9" s="17">
         <v>12</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="27">
+      <c r="B9" s="17"/>
+      <c r="C9" s="18">
         <v>8.16</v>
       </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="21">
+      <c r="D9" s="18"/>
+      <c r="E9" s="10">
         <f>AVERAGE(C9:C11)</f>
         <v>8.2466666666666661</v>
       </c>
-      <c r="F9" s="22"/>
-      <c r="G9" s="15">
+      <c r="F9" s="11"/>
+      <c r="G9" s="4">
         <f>_xlfn.STDEV.P(C9:C11)</f>
         <v>7.8457348639598565E-2</v>
       </c>
-      <c r="H9" s="16"/>
+      <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="6">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="3">
         <v>8.35</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="18"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="6">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="3">
         <v>8.23</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="20"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="14">
+      <c r="A12" s="17">
         <v>16</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="6">
+      <c r="B12" s="17"/>
+      <c r="C12" s="3">
         <v>7.23</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="21">
+      <c r="D12" s="3"/>
+      <c r="E12" s="10">
         <f>AVERAGE(C12:C14)</f>
         <v>7.25</v>
       </c>
-      <c r="F12" s="22"/>
-      <c r="G12" s="15">
+      <c r="F12" s="11"/>
+      <c r="G12" s="4">
         <f>_xlfn.STDEV.P(C12:C14)</f>
         <v>3.5590260840104276E-2</v>
       </c>
-      <c r="H12" s="16"/>
+      <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="6">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="3">
         <v>7.22</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="18"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="7"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="6">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="3">
         <v>7.3</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="20"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="14">
+      <c r="A15" s="17">
         <v>32</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="6">
+      <c r="B15" s="17"/>
+      <c r="C15" s="3">
         <v>5.47</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="21">
+      <c r="D15" s="3"/>
+      <c r="E15" s="10">
         <f>AVERAGE(C15:C17)</f>
         <v>5.4333333333333336</v>
       </c>
-      <c r="F15" s="22"/>
-      <c r="G15" s="15">
+      <c r="F15" s="11"/>
+      <c r="G15" s="4">
         <f>_xlfn.STDEV.P(C15:C17)</f>
         <v>4.4969125210773342E-2</v>
       </c>
-      <c r="H15" s="16"/>
+      <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="6">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="3">
         <v>5.37</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="18"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="7"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="6">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="3">
         <v>5.46</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="20"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="14">
+      <c r="A18" s="17">
         <v>64</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="9"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="3">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="10">
+        <f>AVERAGE(C18:C20)</f>
+        <v>4.7233333333333327</v>
+      </c>
+      <c r="F18" s="11"/>
+      <c r="G18" s="4">
+        <f>_xlfn.STDEV.P(C18:C20)</f>
+        <v>0.23976840677805922</v>
+      </c>
+      <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="11"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="3">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="7"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="13"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="14">
-        <v>96</v>
-      </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="9"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="13"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="3">
+        <v>4.59</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="9"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="1">
+      <c r="B31" s="16"/>
+      <c r="C31" s="1">
         <v>4</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D31" s="1">
         <v>8</v>
       </c>
-      <c r="E27" s="1">
-        <v>12</v>
-      </c>
-      <c r="F27" s="1">
+      <c r="E31" s="1">
         <v>16</v>
       </c>
-      <c r="G27" s="1">
+      <c r="F31" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="G31" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="2">
+      <c r="B32" s="21"/>
+      <c r="C32" s="2">
         <v>17.2133</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D32" s="2">
         <v>10.27</v>
       </c>
-      <c r="E28" s="2">
-        <v>8.2467000000000006</v>
-      </c>
-      <c r="F28" s="2">
+      <c r="E32" s="2">
         <v>7.25</v>
       </c>
-      <c r="G28" s="2">
+      <c r="F32" s="2">
         <v>5.4333</v>
       </c>
+      <c r="G32" s="2">
+        <v>4.72</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="60">
-    <mergeCell ref="E18:F20"/>
-    <mergeCell ref="G18:H20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="G3:H5"/>
-    <mergeCell ref="E6:F8"/>
-    <mergeCell ref="G6:H8"/>
-    <mergeCell ref="E9:F11"/>
-    <mergeCell ref="E15:F17"/>
-    <mergeCell ref="G15:H17"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A9:B11"/>
-    <mergeCell ref="A12:B14"/>
-    <mergeCell ref="A15:B17"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E3:F5"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="A3:B5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A6:B8"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="J1:T1"/>
-    <mergeCell ref="E21:F23"/>
-    <mergeCell ref="G21:H23"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A18:B20"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="G9:H11"/>
-    <mergeCell ref="G12:H14"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="E12:F14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A27:B27"/>
+  <mergeCells count="54">
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="Q3:R3"/>
     <mergeCell ref="S2:T2"/>
@@ -2138,7 +2039,45 @@
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A21:B23"/>
+    <mergeCell ref="J1:T1"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A18:B20"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="G9:H11"/>
+    <mergeCell ref="G12:H14"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="E12:F14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A3:B5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A6:B8"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A9:B11"/>
+    <mergeCell ref="A12:B14"/>
+    <mergeCell ref="A15:B17"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E3:F5"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E18:F20"/>
+    <mergeCell ref="G18:H20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="G3:H5"/>
+    <mergeCell ref="E6:F8"/>
+    <mergeCell ref="G6:H8"/>
+    <mergeCell ref="E9:F11"/>
+    <mergeCell ref="E15:F17"/>
+    <mergeCell ref="G15:H17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Results/pruebasRendimiento.xlsx
+++ b/Results/pruebasRendimiento.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>Nivel paralelismo</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>30 GB</t>
+  </si>
+  <si>
+    <t>Speedup</t>
   </si>
 </sst>
 </file>
@@ -235,7 +238,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -274,22 +292,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -729,7 +732,522 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Speedup</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$39:$G$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$40:$G$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="1">
+                  <c:v>3.86</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.47</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.07</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F159-4DB2-8713-A064364CE360}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="375148736"/>
+        <c:axId val="289572448"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="375148736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Nivel de paralelismo</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="289572448"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="289572448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES" i="1"/>
+                  <a:t>Speedup</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="375148736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1285,6 +1803,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1318,6 +2339,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49F84215-9AEC-46AE-9EBC-C854FC6440A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1623,368 +2680,368 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T32"/>
+  <dimension ref="A1:T40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="21"/>
-      <c r="J1" s="19" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="5"/>
+      <c r="J1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16" t="s">
+      <c r="F2" s="3"/>
+      <c r="G2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="16"/>
-      <c r="J2" s="16" t="s">
+      <c r="H2" s="3"/>
+      <c r="J2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16" t="s">
+      <c r="K2" s="3"/>
+      <c r="L2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16" t="s">
+      <c r="M2" s="3"/>
+      <c r="N2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16" t="s">
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16" t="s">
+      <c r="R2" s="3"/>
+      <c r="S2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="16"/>
+      <c r="T2" s="3"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="17">
+      <c r="A3" s="8">
         <v>4</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="3">
+      <c r="B3" s="8"/>
+      <c r="C3" s="6">
         <v>16.54</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="10">
+      <c r="D3" s="6"/>
+      <c r="E3" s="15">
         <f>AVERAGE(C3:C5)</f>
         <v>17.213333333333331</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="4">
+      <c r="F3" s="16"/>
+      <c r="G3" s="9">
         <f>_xlfn.STDEV.P(C3:C5)</f>
         <v>0.5552977179455677</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="J3" s="3" t="s">
+      <c r="H3" s="10"/>
+      <c r="J3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3" t="s">
+      <c r="K3" s="6"/>
+      <c r="L3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3" t="s">
+      <c r="M3" s="6"/>
+      <c r="N3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3">
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6">
         <v>1</v>
       </c>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3" t="s">
+      <c r="R3" s="6"/>
+      <c r="S3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="T3" s="3"/>
+      <c r="T3" s="6"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="3">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="6">
         <v>17.2</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="12"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="3">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="6">
         <v>17.899999999999999</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="14"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="17">
+      <c r="A6" s="8">
         <v>8</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="3">
+      <c r="B6" s="8"/>
+      <c r="C6" s="6">
         <v>10.31</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="10">
+      <c r="D6" s="6"/>
+      <c r="E6" s="15">
         <f>AVERAGE(C6:C8)</f>
         <v>10.270000000000001</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="4">
+      <c r="F6" s="16"/>
+      <c r="G6" s="9">
         <f>_xlfn.STDEV.P(C6:C8)</f>
         <v>8.6409875978771269E-2</v>
       </c>
-      <c r="H6" s="5"/>
+      <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="3">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="6">
         <v>10.35</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="7"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="12"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="3">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="6">
         <v>10.15</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="17">
+      <c r="A9" s="8">
         <v>12</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="18">
+      <c r="B9" s="8"/>
+      <c r="C9" s="21">
         <v>8.16</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="10">
+      <c r="D9" s="21"/>
+      <c r="E9" s="15">
         <f>AVERAGE(C9:C11)</f>
         <v>8.2466666666666661</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="4">
+      <c r="F9" s="16"/>
+      <c r="G9" s="9">
         <f>_xlfn.STDEV.P(C9:C11)</f>
         <v>7.8457348639598565E-2</v>
       </c>
-      <c r="H9" s="5"/>
+      <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="3">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="6">
         <v>8.35</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="7"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="12"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="3">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="6">
         <v>8.23</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="9"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="17">
+      <c r="A12" s="8">
         <v>16</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="3">
+      <c r="B12" s="8"/>
+      <c r="C12" s="6">
         <v>7.23</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="10">
+      <c r="D12" s="6"/>
+      <c r="E12" s="15">
         <f>AVERAGE(C12:C14)</f>
         <v>7.25</v>
       </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="4">
+      <c r="F12" s="16"/>
+      <c r="G12" s="9">
         <f>_xlfn.STDEV.P(C12:C14)</f>
         <v>3.5590260840104276E-2</v>
       </c>
-      <c r="H12" s="5"/>
+      <c r="H12" s="10"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="3">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="6">
         <v>7.22</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="7"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="12"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="3">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="6">
         <v>7.3</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="9"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="14"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="17">
+      <c r="A15" s="8">
         <v>32</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="3">
+      <c r="B15" s="8"/>
+      <c r="C15" s="6">
         <v>5.47</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="10">
+      <c r="D15" s="6"/>
+      <c r="E15" s="15">
         <f>AVERAGE(C15:C17)</f>
         <v>5.4333333333333336</v>
       </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="4">
+      <c r="F15" s="16"/>
+      <c r="G15" s="9">
         <f>_xlfn.STDEV.P(C15:C17)</f>
         <v>4.4969125210773342E-2</v>
       </c>
-      <c r="H15" s="5"/>
+      <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="3">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="6">
         <v>5.37</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="7"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="12"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="3">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="6">
         <v>5.46</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="9"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="17">
+      <c r="A18" s="8">
         <v>64</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="3">
+      <c r="B18" s="8"/>
+      <c r="C18" s="6">
         <v>5.0599999999999996</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="10">
+      <c r="D18" s="6"/>
+      <c r="E18" s="15">
         <f>AVERAGE(C18:C20)</f>
         <v>4.7233333333333327</v>
       </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="4">
+      <c r="F18" s="16"/>
+      <c r="G18" s="9">
         <f>_xlfn.STDEV.P(C18:C20)</f>
         <v>0.23976840677805922</v>
       </c>
-      <c r="H18" s="5"/>
+      <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="3">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="6">
         <v>4.5199999999999996</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="7"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="12"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="3">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="6">
         <v>4.59</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="9"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="14"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="16"/>
+      <c r="B31" s="3"/>
       <c r="C31" s="1">
         <v>4</v>
       </c>
@@ -2002,10 +3059,10 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="21"/>
+      <c r="B32" s="5"/>
       <c r="C32" s="2">
         <v>17.2133</v>
       </c>
@@ -2022,23 +3079,123 @@
         <v>4.72</v>
       </c>
     </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="1">
+        <v>4</v>
+      </c>
+      <c r="D35" s="1">
+        <v>8</v>
+      </c>
+      <c r="E35" s="1">
+        <v>16</v>
+      </c>
+      <c r="F35" s="1">
+        <v>32</v>
+      </c>
+      <c r="G35" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="2">
+        <f>66.43/17.2133</f>
+        <v>3.8592251340533195</v>
+      </c>
+      <c r="D36" s="2">
+        <f>66.43/10.27</f>
+        <v>6.4683544303797476</v>
+      </c>
+      <c r="E36" s="2">
+        <f>66.43/7.25</f>
+        <v>9.1627586206896563</v>
+      </c>
+      <c r="F36" s="2">
+        <f>66.43/5.4333</f>
+        <v>12.226455377026854</v>
+      </c>
+      <c r="G36" s="2">
+        <f>66.43/4.72</f>
+        <v>14.074152542372884</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="1">
+        <v>4</v>
+      </c>
+      <c r="D39" s="1">
+        <v>8</v>
+      </c>
+      <c r="E39" s="1">
+        <v>16</v>
+      </c>
+      <c r="F39" s="1">
+        <v>32</v>
+      </c>
+      <c r="G39" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" s="5"/>
+      <c r="C40" s="2">
+        <v>3.86</v>
+      </c>
+      <c r="D40" s="2">
+        <v>6.47</v>
+      </c>
+      <c r="E40" s="2">
+        <v>9.16</v>
+      </c>
+      <c r="F40" s="2">
+        <v>12.23</v>
+      </c>
+      <c r="G40" s="2">
+        <v>14.07</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="54">
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
+  <mergeCells count="58">
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="E18:F20"/>
+    <mergeCell ref="G18:H20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="G3:H5"/>
+    <mergeCell ref="E6:F8"/>
+    <mergeCell ref="G6:H8"/>
+    <mergeCell ref="E9:F11"/>
+    <mergeCell ref="E15:F17"/>
+    <mergeCell ref="G15:H17"/>
+    <mergeCell ref="A15:B17"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E3:F5"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A9:B11"/>
+    <mergeCell ref="A12:B14"/>
     <mergeCell ref="J1:T1"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A18:B20"/>
@@ -2055,29 +3212,22 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="A6:B8"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
     <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A9:B11"/>
-    <mergeCell ref="A12:B14"/>
-    <mergeCell ref="A15:B17"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E3:F5"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E18:F20"/>
-    <mergeCell ref="G18:H20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="G3:H5"/>
-    <mergeCell ref="E6:F8"/>
-    <mergeCell ref="G6:H8"/>
-    <mergeCell ref="E9:F11"/>
-    <mergeCell ref="E15:F17"/>
-    <mergeCell ref="G15:H17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
